--- a/xlsx/信息空间_intext.xlsx
+++ b/xlsx/信息空间_intext.xlsx
@@ -29,7 +29,7 @@
     <t>抽象</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_信息空间</t>
+    <t>政策_政策_维基百科_信息空间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E7%8E%B0%E5%AE%9E</t>
